--- a/natmiOut/OldD7/LR-pairs_lrc2p/Gnai2-Cav1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Gnai2-Cav1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>141.686423604949</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H2">
-        <v>141.686423604949</v>
+        <v>450.106292</v>
       </c>
       <c r="I2">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J2">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>806.30804721675</v>
+        <v>833.4308676666666</v>
       </c>
       <c r="N2">
-        <v>806.30804721675</v>
+        <v>2500.292603</v>
       </c>
       <c r="O2">
-        <v>0.867955262280142</v>
+        <v>0.8518935545813505</v>
       </c>
       <c r="P2">
-        <v>0.867955262280142</v>
+        <v>0.8518935545813505</v>
       </c>
       <c r="Q2">
-        <v>114242.9035340316</v>
+        <v>125044.159161262</v>
       </c>
       <c r="R2">
-        <v>114242.9035340316</v>
+        <v>1125397.432451358</v>
       </c>
       <c r="S2">
-        <v>0.3663189276273471</v>
+        <v>0.3537494259557668</v>
       </c>
       <c r="T2">
-        <v>0.3663189276273471</v>
+        <v>0.3537494259557667</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>141.686423604949</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H3">
-        <v>141.686423604949</v>
+        <v>450.106292</v>
       </c>
       <c r="I3">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J3">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.9174267977979</v>
+        <v>17.73945766666667</v>
       </c>
       <c r="N3">
-        <v>16.9174267977979</v>
+        <v>53.218373</v>
       </c>
       <c r="O3">
-        <v>0.01821086824579412</v>
+        <v>0.01813243333584592</v>
       </c>
       <c r="P3">
-        <v>0.01821086824579412</v>
+        <v>0.01813243333584592</v>
       </c>
       <c r="Q3">
-        <v>2396.969699578509</v>
+        <v>2661.547170811435</v>
       </c>
       <c r="R3">
-        <v>2396.969699578509</v>
+        <v>23953.92453730292</v>
       </c>
       <c r="S3">
-        <v>0.007685863565637416</v>
+        <v>0.007529506297167524</v>
       </c>
       <c r="T3">
-        <v>0.007685863565637416</v>
+        <v>0.007529506297167522</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>141.686423604949</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H4">
-        <v>141.686423604949</v>
+        <v>450.106292</v>
       </c>
       <c r="I4">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J4">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.13643411380345</v>
+        <v>1.344749666666667</v>
       </c>
       <c r="N4">
-        <v>1.13643411380345</v>
+        <v>4.034249</v>
       </c>
       <c r="O4">
-        <v>0.00122332149941351</v>
+        <v>0.001374539410528448</v>
       </c>
       <c r="P4">
-        <v>0.00122332149941351</v>
+        <v>0.001374539410528448</v>
       </c>
       <c r="Q4">
-        <v>161.0172852474704</v>
+        <v>201.7600953771898</v>
       </c>
       <c r="R4">
-        <v>161.0172852474704</v>
+        <v>1815.840858394708</v>
       </c>
       <c r="S4">
-        <v>0.000516300596682134</v>
+        <v>0.0005707785025641763</v>
       </c>
       <c r="T4">
-        <v>0.000516300596682134</v>
+        <v>0.0005707785025641761</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>141.686423604949</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H5">
-        <v>141.686423604949</v>
+        <v>450.106292</v>
       </c>
       <c r="I5">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J5">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>104.612293950402</v>
+        <v>125.812397</v>
       </c>
       <c r="N5">
-        <v>104.612293950402</v>
+        <v>377.437191</v>
       </c>
       <c r="O5">
-        <v>0.1126105479746504</v>
+        <v>0.1285994726722751</v>
       </c>
       <c r="P5">
-        <v>0.1126105479746504</v>
+        <v>0.1285994726722751</v>
       </c>
       <c r="Q5">
-        <v>14822.1417949421</v>
+        <v>18876.31716710064</v>
       </c>
       <c r="R5">
-        <v>14822.1417949421</v>
+        <v>169886.8545039058</v>
       </c>
       <c r="S5">
-        <v>0.0475270753762508</v>
+        <v>0.05340102574010901</v>
       </c>
       <c r="T5">
-        <v>0.0475270753762508</v>
+        <v>0.053401025740109</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>67.92168737024831</v>
+        <v>68.382243</v>
       </c>
       <c r="H6">
-        <v>67.92168737024831</v>
+        <v>205.146729</v>
       </c>
       <c r="I6">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="J6">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>806.30804721675</v>
+        <v>833.4308676666666</v>
       </c>
       <c r="N6">
-        <v>806.30804721675</v>
+        <v>2500.292603</v>
       </c>
       <c r="O6">
-        <v>0.867955262280142</v>
+        <v>0.8518935545813505</v>
       </c>
       <c r="P6">
-        <v>0.867955262280142</v>
+        <v>0.8518935545813505</v>
       </c>
       <c r="Q6">
-        <v>54765.8031071715</v>
+        <v>56991.87211648284</v>
       </c>
       <c r="R6">
-        <v>54765.8031071715</v>
+        <v>512926.8490483455</v>
       </c>
       <c r="S6">
-        <v>0.1756060958210269</v>
+        <v>0.1612297781886001</v>
       </c>
       <c r="T6">
-        <v>0.1756060958210269</v>
+        <v>0.1612297781886001</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>67.92168737024831</v>
+        <v>68.382243</v>
       </c>
       <c r="H7">
-        <v>67.92168737024831</v>
+        <v>205.146729</v>
       </c>
       <c r="I7">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="J7">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.9174267977979</v>
+        <v>17.73945766666667</v>
       </c>
       <c r="N7">
-        <v>16.9174267977979</v>
+        <v>53.218373</v>
       </c>
       <c r="O7">
-        <v>0.01821086824579412</v>
+        <v>0.01813243333584592</v>
       </c>
       <c r="P7">
-        <v>0.01821086824579412</v>
+        <v>0.01813243333584592</v>
       </c>
       <c r="Q7">
-        <v>1149.06017406909</v>
+        <v>1213.063904850213</v>
       </c>
       <c r="R7">
-        <v>1149.06017406909</v>
+        <v>10917.57514365192</v>
       </c>
       <c r="S7">
-        <v>0.003684451967897453</v>
+        <v>0.003431752933257862</v>
       </c>
       <c r="T7">
-        <v>0.003684451967897453</v>
+        <v>0.003431752933257861</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>67.92168737024831</v>
+        <v>68.382243</v>
       </c>
       <c r="H8">
-        <v>67.92168737024831</v>
+        <v>205.146729</v>
       </c>
       <c r="I8">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="J8">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.13643411380345</v>
+        <v>1.344749666666667</v>
       </c>
       <c r="N8">
-        <v>1.13643411380345</v>
+        <v>4.034249</v>
       </c>
       <c r="O8">
-        <v>0.00122332149941351</v>
+        <v>0.001374539410528448</v>
       </c>
       <c r="P8">
-        <v>0.00122332149941351</v>
+        <v>0.001374539410528448</v>
       </c>
       <c r="Q8">
-        <v>77.18852259464312</v>
+        <v>91.95699848016901</v>
       </c>
       <c r="R8">
-        <v>77.18852259464312</v>
+        <v>827.612986321521</v>
       </c>
       <c r="S8">
-        <v>0.0002475043608602431</v>
+        <v>0.0002601459807732679</v>
       </c>
       <c r="T8">
-        <v>0.0002475043608602431</v>
+        <v>0.0002601459807732678</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>67.92168737024831</v>
+        <v>68.382243</v>
       </c>
       <c r="H9">
-        <v>67.92168737024831</v>
+        <v>205.146729</v>
       </c>
       <c r="I9">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="J9">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>104.612293950402</v>
+        <v>125.812397</v>
       </c>
       <c r="N9">
-        <v>104.612293950402</v>
+        <v>377.437191</v>
       </c>
       <c r="O9">
-        <v>0.1126105479746504</v>
+        <v>0.1285994726722751</v>
       </c>
       <c r="P9">
-        <v>0.1126105479746504</v>
+        <v>0.1285994726722751</v>
       </c>
       <c r="Q9">
-        <v>7105.443524783724</v>
+        <v>8603.333904066472</v>
       </c>
       <c r="R9">
-        <v>7105.443524783724</v>
+        <v>77430.00513659825</v>
       </c>
       <c r="S9">
-        <v>0.0227835460391646</v>
+        <v>0.02433879719199341</v>
       </c>
       <c r="T9">
-        <v>0.0227835460391646</v>
+        <v>0.02433879719199341</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>91.2433905747086</v>
+        <v>104.737245</v>
       </c>
       <c r="H10">
-        <v>91.2433905747086</v>
+        <v>314.211735</v>
       </c>
       <c r="I10">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="J10">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>806.30804721675</v>
+        <v>833.4308676666666</v>
       </c>
       <c r="N10">
-        <v>806.30804721675</v>
+        <v>2500.292603</v>
       </c>
       <c r="O10">
-        <v>0.867955262280142</v>
+        <v>0.8518935545813505</v>
       </c>
       <c r="P10">
-        <v>0.867955262280142</v>
+        <v>0.8518935545813505</v>
       </c>
       <c r="Q10">
-        <v>73570.2800757285</v>
+        <v>87291.25297736622</v>
       </c>
       <c r="R10">
-        <v>73570.2800757285</v>
+        <v>785621.2767962961</v>
       </c>
       <c r="S10">
-        <v>0.2359024960754459</v>
+        <v>0.2469466054138508</v>
       </c>
       <c r="T10">
-        <v>0.2359024960754459</v>
+        <v>0.2469466054138508</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>91.2433905747086</v>
+        <v>104.737245</v>
       </c>
       <c r="H11">
-        <v>91.2433905747086</v>
+        <v>314.211735</v>
       </c>
       <c r="I11">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="J11">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.9174267977979</v>
+        <v>17.73945766666667</v>
       </c>
       <c r="N11">
-        <v>16.9174267977979</v>
+        <v>53.218373</v>
       </c>
       <c r="O11">
-        <v>0.01821086824579412</v>
+        <v>0.01813243333584592</v>
       </c>
       <c r="P11">
-        <v>0.01821086824579412</v>
+        <v>0.01813243333584592</v>
       </c>
       <c r="Q11">
-        <v>1543.603380830516</v>
+        <v>1857.981923800795</v>
       </c>
       <c r="R11">
-        <v>1543.603380830516</v>
+        <v>16721.83731420715</v>
       </c>
       <c r="S11">
-        <v>0.004949551505221858</v>
+        <v>0.005256223428501713</v>
       </c>
       <c r="T11">
-        <v>0.004949551505221858</v>
+        <v>0.005256223428501712</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>91.2433905747086</v>
+        <v>104.737245</v>
       </c>
       <c r="H12">
-        <v>91.2433905747086</v>
+        <v>314.211735</v>
       </c>
       <c r="I12">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="J12">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.13643411380345</v>
+        <v>1.344749666666667</v>
       </c>
       <c r="N12">
-        <v>1.13643411380345</v>
+        <v>4.034249</v>
       </c>
       <c r="O12">
-        <v>0.00122332149941351</v>
+        <v>0.001374539410528448</v>
       </c>
       <c r="P12">
-        <v>0.00122332149941351</v>
+        <v>0.001374539410528448</v>
       </c>
       <c r="Q12">
-        <v>103.692101708191</v>
+        <v>140.845375301335</v>
       </c>
       <c r="R12">
-        <v>103.692101708191</v>
+        <v>1267.608377712015</v>
       </c>
       <c r="S12">
-        <v>0.0003324878686215746</v>
+        <v>0.0003984510031941339</v>
       </c>
       <c r="T12">
-        <v>0.0003324878686215746</v>
+        <v>0.0003984510031941338</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>91.2433905747086</v>
+        <v>104.737245</v>
       </c>
       <c r="H13">
-        <v>91.2433905747086</v>
+        <v>314.211735</v>
       </c>
       <c r="I13">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="J13">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>104.612293950402</v>
+        <v>125.812397</v>
       </c>
       <c r="N13">
-        <v>104.612293950402</v>
+        <v>377.437191</v>
       </c>
       <c r="O13">
-        <v>0.1126105479746504</v>
+        <v>0.1285994726722751</v>
       </c>
       <c r="P13">
-        <v>0.1126105479746504</v>
+        <v>0.1285994726722751</v>
       </c>
       <c r="Q13">
-        <v>9545.180395832756</v>
+        <v>13177.24384862627</v>
       </c>
       <c r="R13">
-        <v>9545.180395832756</v>
+        <v>118595.1946376364</v>
       </c>
       <c r="S13">
-        <v>0.03060654218727415</v>
+        <v>0.03727837012458228</v>
       </c>
       <c r="T13">
-        <v>0.03060654218727415</v>
+        <v>0.03727837012458227</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>34.8599992401179</v>
+        <v>38.15794</v>
       </c>
       <c r="H14">
-        <v>34.8599992401179</v>
+        <v>114.47382</v>
       </c>
       <c r="I14">
-        <v>0.1038391570085698</v>
+        <v>0.105609139239639</v>
       </c>
       <c r="J14">
-        <v>0.1038391570085698</v>
+        <v>0.105609139239639</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>806.30804721675</v>
+        <v>833.4308676666666</v>
       </c>
       <c r="N14">
-        <v>806.30804721675</v>
+        <v>2500.292603</v>
       </c>
       <c r="O14">
-        <v>0.867955262280142</v>
+        <v>0.8518935545813505</v>
       </c>
       <c r="P14">
-        <v>0.867955262280142</v>
+        <v>0.8518935545813505</v>
       </c>
       <c r="Q14">
-        <v>28107.89791327685</v>
+        <v>31802.00504257261</v>
       </c>
       <c r="R14">
-        <v>28107.89791327685</v>
+        <v>286218.0453831534</v>
       </c>
       <c r="S14">
-        <v>0.09012774275632209</v>
+        <v>0.08996774502313286</v>
       </c>
       <c r="T14">
-        <v>0.09012774275632209</v>
+        <v>0.08996774502313283</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>34.8599992401179</v>
+        <v>38.15794</v>
       </c>
       <c r="H15">
-        <v>34.8599992401179</v>
+        <v>114.47382</v>
       </c>
       <c r="I15">
-        <v>0.1038391570085698</v>
+        <v>0.105609139239639</v>
       </c>
       <c r="J15">
-        <v>0.1038391570085698</v>
+        <v>0.105609139239639</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>16.9174267977979</v>
+        <v>17.73945766666667</v>
       </c>
       <c r="N15">
-        <v>16.9174267977979</v>
+        <v>53.218373</v>
       </c>
       <c r="O15">
-        <v>0.01821086824579412</v>
+        <v>0.01813243333584592</v>
       </c>
       <c r="P15">
-        <v>0.01821086824579412</v>
+        <v>0.01813243333584592</v>
       </c>
       <c r="Q15">
-        <v>589.7414853159851</v>
+        <v>676.9011612772067</v>
       </c>
       <c r="R15">
-        <v>589.7414853159851</v>
+        <v>6092.11045149486</v>
       </c>
       <c r="S15">
-        <v>0.001891001207037395</v>
+        <v>0.001914950676918824</v>
       </c>
       <c r="T15">
-        <v>0.001891001207037395</v>
+        <v>0.001914950676918823</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>34.8599992401179</v>
+        <v>38.15794</v>
       </c>
       <c r="H16">
-        <v>34.8599992401179</v>
+        <v>114.47382</v>
       </c>
       <c r="I16">
-        <v>0.1038391570085698</v>
+        <v>0.105609139239639</v>
       </c>
       <c r="J16">
-        <v>0.1038391570085698</v>
+        <v>0.105609139239639</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.13643411380345</v>
+        <v>1.344749666666667</v>
       </c>
       <c r="N16">
-        <v>1.13643411380345</v>
+        <v>4.034249</v>
       </c>
       <c r="O16">
-        <v>0.00122332149941351</v>
+        <v>0.001374539410528448</v>
       </c>
       <c r="P16">
-        <v>0.00122332149941351</v>
+        <v>0.001374539410528448</v>
       </c>
       <c r="Q16">
-        <v>39.61609234363232</v>
+        <v>51.31287709568667</v>
       </c>
       <c r="R16">
-        <v>39.61609234363232</v>
+        <v>461.81589386118</v>
       </c>
       <c r="S16">
-        <v>0.0001270286732495586</v>
+        <v>0.0001451639239968702</v>
       </c>
       <c r="T16">
-        <v>0.0001270286732495586</v>
+        <v>0.0001451639239968701</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>34.8599992401179</v>
+        <v>38.15794</v>
       </c>
       <c r="H17">
-        <v>34.8599992401179</v>
+        <v>114.47382</v>
       </c>
       <c r="I17">
-        <v>0.1038391570085698</v>
+        <v>0.105609139239639</v>
       </c>
       <c r="J17">
-        <v>0.1038391570085698</v>
+        <v>0.105609139239639</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>104.612293950402</v>
+        <v>125.812397</v>
       </c>
       <c r="N17">
-        <v>104.612293950402</v>
+        <v>377.437191</v>
       </c>
       <c r="O17">
-        <v>0.1126105479746504</v>
+        <v>0.1285994726722751</v>
       </c>
       <c r="P17">
-        <v>0.1126105479746504</v>
+        <v>0.1285994726722751</v>
       </c>
       <c r="Q17">
-        <v>3646.784487618004</v>
+        <v>4800.741895982181</v>
       </c>
       <c r="R17">
-        <v>3646.784487618004</v>
+        <v>43206.67706383963</v>
       </c>
       <c r="S17">
-        <v>0.01169338437196081</v>
+        <v>0.01358127961559046</v>
       </c>
       <c r="T17">
-        <v>0.01169338437196081</v>
+        <v>0.01358127961559045</v>
       </c>
     </row>
   </sheetData>
